--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998362A-DCA6-41F5-9C89-7ED63C2BC430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>System</t>
   </si>
@@ -57,18 +64,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -110,11 +105,83 @@
   <si>
     <t>EN_07006</t>
   </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustable Limited Slip </t>
+  </si>
+  <si>
+    <t>Excentric</t>
+  </si>
+  <si>
+    <t>Excentric carrier</t>
+  </si>
+  <si>
+    <t>Ball bearing</t>
+  </si>
+  <si>
+    <t>Needle roller bearing</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Link between drivetrain and frame</t>
+  </si>
+  <si>
+    <t>Carry the differential</t>
+  </si>
+  <si>
+    <t>Between drive shaft and differential</t>
+  </si>
+  <si>
+    <t>Rear sprocket adaptator</t>
+  </si>
+  <si>
+    <t>Link between rear sprocket and differential</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Chainshield</t>
+  </si>
+  <si>
+    <t>Link between chain and output of the motor</t>
+  </si>
+  <si>
+    <t>Link between chain and rear sprocket adaptator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front sprocket </t>
+  </si>
+  <si>
+    <t>Rear sprocket</t>
+  </si>
+  <si>
+    <t>Protection around the chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driveshaht </t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>Tripod housing</t>
+  </si>
+  <si>
+    <t>Enable small displacement of driveshaft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,27 +596,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G8"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="44.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -572,134 +639,233 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998362A-DCA6-41F5-9C89-7ED63C2BC430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCBCEC-959E-4267-8D8B-94CD8CCD3EB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>System</t>
   </si>
@@ -115,15 +115,6 @@
     <t xml:space="preserve">Adjustable Limited Slip </t>
   </si>
   <si>
-    <t>Excentric</t>
-  </si>
-  <si>
-    <t>Excentric carrier</t>
-  </si>
-  <si>
-    <t>Ball bearing</t>
-  </si>
-  <si>
     <t>Needle roller bearing</t>
   </si>
   <si>
@@ -166,16 +157,91 @@
     <t>Protection around the chain</t>
   </si>
   <si>
-    <t xml:space="preserve">Driveshaht </t>
-  </si>
-  <si>
     <t>Tripod</t>
   </si>
   <si>
-    <t>Tripod housing</t>
-  </si>
-  <si>
-    <t>Enable small displacement of driveshaft</t>
+    <t>Excentric left</t>
+  </si>
+  <si>
+    <t>Excentric right</t>
+  </si>
+  <si>
+    <t>Ball bearing right</t>
+  </si>
+  <si>
+    <t>Excentric carrier right</t>
+  </si>
+  <si>
+    <t>Excentric carrier left</t>
+  </si>
+  <si>
+    <t>Ball bearing left</t>
+  </si>
+  <si>
+    <t>Enable small displacement of driveshafts</t>
+  </si>
+  <si>
+    <t>Driveshaht left</t>
+  </si>
+  <si>
+    <t>Driveshaht right</t>
+  </si>
+  <si>
+    <t>Inner tripod housing</t>
+  </si>
+  <si>
+    <t>Outer tripod housing</t>
+  </si>
+  <si>
+    <t>Jacking bar</t>
+  </si>
+  <si>
+    <t>Link between wheel and driveshat</t>
+  </si>
+  <si>
+    <t>Link differential wheel and driveshat</t>
+  </si>
+  <si>
+    <t>Enable to lift the vehicle</t>
+  </si>
+  <si>
+    <t>EN_07007</t>
+  </si>
+  <si>
+    <t>EN_07009</t>
+  </si>
+  <si>
+    <t>EN_07008</t>
+  </si>
+  <si>
+    <t>EN_07011</t>
+  </si>
+  <si>
+    <t>EN_07012</t>
+  </si>
+  <si>
+    <t>EN_07010</t>
+  </si>
+  <si>
+    <t>EN_07013</t>
+  </si>
+  <si>
+    <t>EN_07014</t>
+  </si>
+  <si>
+    <t>EN_07015</t>
+  </si>
+  <si>
+    <t>EN_07016</t>
+  </si>
+  <si>
+    <t>EN_07017</t>
+  </si>
+  <si>
+    <t>EN_07018</t>
+  </si>
+  <si>
+    <t>EN_07019</t>
   </si>
 </sst>
 </file>
@@ -597,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,15 +743,17 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
@@ -694,15 +762,17 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
@@ -711,13 +781,17 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
@@ -726,16 +800,16 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -745,7 +819,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -762,52 +836,54 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -816,56 +892,184 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCBCEC-959E-4267-8D8B-94CD8CCD3EB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>System</t>
   </si>
@@ -243,11 +242,20 @@
   <si>
     <t>EN_07019</t>
   </si>
+  <si>
+    <t>EN_07020</t>
+  </si>
+  <si>
+    <t>Tripod nut</t>
+  </si>
+  <si>
+    <t>Nylstop, non metric</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,27 +670,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="44.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -720,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -739,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -758,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -777,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -796,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -815,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -832,7 +840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -849,7 +857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -868,7 +876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -885,7 +893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -904,7 +912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -923,7 +931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -942,7 +950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -961,7 +969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -978,7 +986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -995,7 +1003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1014,7 +1022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1033,7 +1041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1052,23 +1060,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>System</t>
   </si>
@@ -192,18 +192,12 @@
     <t>Outer tripod housing</t>
   </si>
   <si>
-    <t>Jacking bar</t>
-  </si>
-  <si>
     <t>Link between wheel and driveshat</t>
   </si>
   <si>
     <t>Link differential wheel and driveshat</t>
   </si>
   <si>
-    <t>Enable to lift the vehicle</t>
-  </si>
-  <si>
     <t>EN_07007</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
   </si>
   <si>
     <t>EN_07019</t>
-  </si>
-  <si>
-    <t>EN_07020</t>
   </si>
   <si>
     <t>Tripod nut</t>
@@ -671,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +675,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -854,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -873,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -890,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -928,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -947,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -966,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -983,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1000,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1019,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,13 +1023,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1051,51 +1042,32 @@
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>System</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Nylstop, non metric</t>
+  </si>
+  <si>
+    <t>EN_07020</t>
+  </si>
+  <si>
+    <t>Over driveshafts and tripod housings</t>
+  </si>
+  <si>
+    <t>Axle boots</t>
   </si>
 </sst>
 </file>
@@ -662,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,6 +1079,25 @@
         <v>59</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -84,9 +84,6 @@
     <t>Drivetrain assembly</t>
   </si>
   <si>
-    <t>EN_A0007</t>
-  </si>
-  <si>
     <t>EN_07001</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Axle boots</t>
+  </si>
+  <si>
+    <t>EN_A0700</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,377 +725,377 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4">
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0700" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>System</t>
   </si>
@@ -251,12 +252,48 @@
   <si>
     <t>EN_A0700</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>EN - Drivetrain assembly</t>
+  </si>
+  <si>
+    <t>EN_A0700_P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +336,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +378,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +440,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -390,6 +468,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,9 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,4 +1195,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D65CD-B96B-4794-B04A-A53A3D4FA891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0700" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="141">
   <si>
     <t>System</t>
   </si>
@@ -178,12 +179,6 @@
     <t>Enable small displacement of driveshafts</t>
   </si>
   <si>
-    <t>Driveshaht left</t>
-  </si>
-  <si>
-    <t>Driveshaht right</t>
-  </si>
-  <si>
     <t>Inner tripod housing</t>
   </si>
   <si>
@@ -268,32 +263,308 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
-    <t>Tba</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
-    <t>Fasteners</t>
-  </si>
-  <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>EN - Drivetrain assembly</t>
   </si>
   <si>
     <t>EN_A0700_P</t>
+  </si>
+  <si>
+    <t>Driveshaft left</t>
+  </si>
+  <si>
+    <t>Plastic, Delrin</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Fasterners</t>
+  </si>
+  <si>
+    <t>Bolt grade 8.8</t>
+  </si>
+  <si>
+    <t>Nut grade 8.8</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T6</t>
+  </si>
+  <si>
+    <t>Tapping holes (Machining)</t>
+  </si>
+  <si>
+    <t>Machining (CNC)</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T81</t>
+  </si>
+  <si>
+    <t>Splined raw material provided with differential</t>
+  </si>
+  <si>
+    <t>Steel, S355</t>
+  </si>
+  <si>
+    <t>Sheet materials</t>
+  </si>
+  <si>
+    <t>Laser cut preparing</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Cut the plate</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Size adjustment and grooves</t>
+  </si>
+  <si>
+    <t>Splined shaft provided by customer</t>
+  </si>
+  <si>
+    <t>Je les ai mis en "made" du coup sinon je vois pas trop comment prendre l'usinage en compte à moins que tu veuilles mettre l'usinage dans la partie assembly processes et garder les arbres en "buy"
+PS: Je les ai aussi mis en "made" sur le BOM du coup</t>
+  </si>
+  <si>
+    <t>Perçage pris en compte dans tapping holes ?</t>
+  </si>
+  <si>
+    <t>Driveshaft right</t>
+  </si>
+  <si>
+    <t>Driveshaft, steel ?</t>
+  </si>
+  <si>
+    <t>Fluid, limited slip differential oil 75W140</t>
+  </si>
+  <si>
+    <t>Fluid, tripod grease</t>
+  </si>
+  <si>
+    <t>Fluid, chain oil</t>
+  </si>
+  <si>
+    <t>Washer, steel stainless</t>
+  </si>
+  <si>
+    <t>M10, assembly of rear sprocket</t>
+  </si>
+  <si>
+    <t>Bolt grade 12.9</t>
+  </si>
+  <si>
+    <t>M10, assembly of inner tripod housing</t>
+  </si>
+  <si>
+    <t>M8, assembly of excentrics carriers</t>
+  </si>
+  <si>
+    <t>Retaining ring, external</t>
+  </si>
+  <si>
+    <t>Metal clamp</t>
+  </si>
+  <si>
+    <t>Assembly of axle boots</t>
+  </si>
+  <si>
+    <r>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8 inch, assembly of tripods</t>
+    </r>
+  </si>
+  <si>
+    <t>M6, assembly of chainshield</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Rear sproket with its adaptator</t>
+  </si>
+  <si>
+    <t>Front sprocket with engine</t>
+  </si>
+  <si>
+    <t>Excentrics with their carriers</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Fastener install</t>
+  </si>
+  <si>
+    <t>Rear sproket adaptator with differential</t>
+  </si>
+  <si>
+    <t>Retaining ring on differential</t>
+  </si>
+  <si>
+    <t>Provided with engine for front sprocket</t>
+  </si>
+  <si>
+    <t>Excentrics carriers with différential</t>
+  </si>
+  <si>
+    <t>Inner tripod housing with differential</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>47 mm, for</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rear sprocket adaptator</t>
+    </r>
+  </si>
+  <si>
+    <t>Assembly with steering</t>
+  </si>
+  <si>
+    <t>Tripods on driveshafts</t>
+  </si>
+  <si>
+    <t>Retaining ring on driveshafts</t>
+  </si>
+  <si>
+    <t>Axle boots on driveshafts</t>
+  </si>
+  <si>
+    <t>Outers tripod housing with their nut</t>
+  </si>
+  <si>
+    <t>Tripod grease</t>
+  </si>
+  <si>
+    <t>Driveshafts with tripods installation</t>
+  </si>
+  <si>
+    <t>Metals clamps on axle boots</t>
+  </si>
+  <si>
+    <t>Fill with liquids, grease, …</t>
+  </si>
+  <si>
+    <t>Differential oil</t>
+  </si>
+  <si>
+    <t>Chain oil</t>
+  </si>
+  <si>
+    <t>Chainshield installation</t>
+  </si>
+  <si>
+    <t>Chain installation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assemble by hand </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain length adjustment </t>
+  </si>
+  <si>
+    <t>Press operations</t>
+  </si>
+  <si>
+    <t>Left roller bearing on differential</t>
+  </si>
+  <si>
+    <t>Right roller bearing on differential</t>
+  </si>
+  <si>
+    <t>Needle roller bearings in differential</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +617,58 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -457,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,6 +805,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,27 +1137,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="41.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -818,10 +1192,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -840,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -859,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -878,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -897,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -916,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -933,7 +1307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -947,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -966,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -983,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1002,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1021,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1040,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1059,44 +1433,44 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1112,83 +1486,83 @@
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1198,39 +1572,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="41.08984375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1242,319 +1617,2034 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" ref="I4:I14" si="0">LEN(F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>74</v>
+      <c r="D9" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="e">
+        <f>LEN(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" t="e">
+        <f>LEN(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>73</v>
+      <c r="D12" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>69</v>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>69</v>
+      <c r="D15" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" ref="I15:I58" si="1">LEN(F15)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>72</v>
+      <c r="D16" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
+      <c r="D17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>73</v>
+      <c r="D18" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20">
+        <f>LEN(F20)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24">
+        <f>LEN(F9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25">
+        <f>LEN(F10)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="8"/>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="9">
+        <v>8</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="9">
+        <v>6</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="9">
+        <v>14</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="9">
+        <v>6</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="9">
+        <v>6</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="9">
+        <v>12</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="9">
+        <v>2</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="9">
+        <v>8</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="9">
+        <v>8</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="9">
+        <v>2</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="9">
+        <v>4</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" s="24" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="C105" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="22"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="1:9" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="21"/>
+      <c r="B109" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="22"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="7"/>
+      <c r="B115" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="7"/>
+      <c r="B117" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="7"/>
+      <c r="B119" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D65CD-B96B-4794-B04A-A53A3D4FA891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E25DE0-A028-46A6-8E64-862E92BE5D36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="144">
   <si>
     <t>System</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Machining (conventionnal)</t>
   </si>
   <si>
-    <t>Drilled hole</t>
-  </si>
-  <si>
     <t>Fasterners</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Aluminium, 7075 T6</t>
   </si>
   <si>
-    <t>Tapping holes (Machining)</t>
-  </si>
-  <si>
     <t>Machining (CNC)</t>
   </si>
   <si>
@@ -329,25 +323,9 @@
     <t>Bending</t>
   </si>
   <si>
-    <t>Size adjustment and grooves</t>
-  </si>
-  <si>
-    <t>Splined shaft provided by customer</t>
-  </si>
-  <si>
-    <t>Je les ai mis en "made" du coup sinon je vois pas trop comment prendre l'usinage en compte à moins que tu veuilles mettre l'usinage dans la partie assembly processes et garder les arbres en "buy"
-PS: Je les ai aussi mis en "made" sur le BOM du coup</t>
-  </si>
-  <si>
-    <t>Perçage pris en compte dans tapping holes ?</t>
-  </si>
-  <si>
     <t>Driveshaft right</t>
   </si>
   <si>
-    <t>Driveshaft, steel ?</t>
-  </si>
-  <si>
     <t>Fluid, limited slip differential oil 75W140</t>
   </si>
   <si>
@@ -360,9 +338,6 @@
     <t>Washer, steel stainless</t>
   </si>
   <si>
-    <t>M10, assembly of rear sprocket</t>
-  </si>
-  <si>
     <t>Bolt grade 12.9</t>
   </si>
   <si>
@@ -375,40 +350,9 @@
     <t>Retaining ring, external</t>
   </si>
   <si>
-    <t>Metal clamp</t>
-  </si>
-  <si>
     <t>Assembly of axle boots</t>
   </si>
   <si>
-    <r>
-      <t>Φ</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.8 inch, assembly of tripods</t>
-    </r>
-  </si>
-  <si>
     <t>M6, assembly of chainshield</t>
   </si>
   <si>
@@ -434,9 +378,6 @@
   </si>
   <si>
     <t>Retaining ring on differential</t>
-  </si>
-  <si>
-    <t>Provided with engine for front sprocket</t>
   </si>
   <si>
     <t>Excentrics carriers with différential</t>
@@ -487,9 +428,6 @@
     </r>
   </si>
   <si>
-    <t>Assembly with steering</t>
-  </si>
-  <si>
     <t>Tripods on driveshafts</t>
   </si>
   <si>
@@ -505,12 +443,6 @@
     <t>Tripod grease</t>
   </si>
   <si>
-    <t>Driveshafts with tripods installation</t>
-  </si>
-  <si>
-    <t>Metals clamps on axle boots</t>
-  </si>
-  <si>
     <t>Fill with liquids, grease, …</t>
   </si>
   <si>
@@ -526,45 +458,108 @@
     <t>Chain installation</t>
   </si>
   <si>
+    <t xml:space="preserve">Chain length adjustment </t>
+  </si>
+  <si>
+    <t>Press operations</t>
+  </si>
+  <si>
+    <t>Left roller bearing on differential</t>
+  </si>
+  <si>
+    <t>Right roller bearing on differential</t>
+  </si>
+  <si>
+    <t>Needle roller bearings in differential</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Assemble by hand </t>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>?</t>
+      <t xml:space="preserve"> 20 mm, assembly of tripods</t>
     </r>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chain length adjustment </t>
-  </si>
-  <si>
-    <t>Press operations</t>
-  </si>
-  <si>
-    <t>Left roller bearing on differential</t>
-  </si>
-  <si>
-    <t>Right roller bearing on differential</t>
-  </si>
-  <si>
-    <t>Needle roller bearings in differential</t>
+    <t>Boot clamp, ligarex strap with buckle</t>
+  </si>
+  <si>
+    <t>Boot clamps to lock axle boots</t>
+  </si>
+  <si>
+    <t>Painting, aerosol apply</t>
+  </si>
+  <si>
+    <t>M10, assembly of sprockets</t>
+  </si>
+  <si>
+    <t>Quick link chain</t>
+  </si>
+  <si>
+    <t>To close the chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemble by hand </t>
+  </si>
+  <si>
+    <t>Setting on the frame</t>
+  </si>
+  <si>
+    <t>Threadlock application</t>
+  </si>
+  <si>
+    <t>On screews used for inner tripod housing</t>
+  </si>
+  <si>
+    <t>Thread locking</t>
+  </si>
+  <si>
+    <t>Adjustment of driveshaft left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size adjustment and grooves </t>
+  </si>
+  <si>
+    <t>Adjustment of driveshaft right</t>
+  </si>
+  <si>
+    <t>Machining setup, change</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Driveshafts assemblies in tripod housings</t>
+  </si>
+  <si>
+    <t>Metrology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,21 +619,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -671,6 +651,26 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -836,26 +836,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1141,8 +1147,8 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1449,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
@@ -1457,10 +1463,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
@@ -1573,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="C113" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,7 +1597,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>66</v>
@@ -1647,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1655,81 +1661,81 @@
         <v>67</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="I4">
-        <f t="shared" ref="I4:I14" si="0">LEN(F4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>97</v>
+      <c r="E5" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>98</v>
+      <c r="E6" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1737,19 +1743,17 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="8"/>
-      <c r="I9" t="e">
-        <f>LEN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1757,33 +1761,35 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="I10" t="e">
-        <f>LEN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1791,19 +1797,17 @@
         <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
       <c r="H12" s="8"/>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1811,19 +1815,17 @@
         <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1831,39 +1833,35 @@
         <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>109</v>
+      <c r="E15" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
       <c r="H15" s="8"/>
-      <c r="I15">
-        <f t="shared" ref="I15:I58" si="1">LEN(F15)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1871,39 +1869,35 @@
         <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>109</v>
+      <c r="E17" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
       <c r="H17" s="8"/>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1911,59 +1905,53 @@
         <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
       <c r="H18" s="8"/>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>114</v>
+      <c r="E19" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
       <c r="H19" s="8"/>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>109</v>
+      <c r="E20" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
       <c r="H20" s="8"/>
-      <c r="I20">
-        <f>LEN(F20)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1971,19 +1959,17 @@
         <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
       <c r="H21" s="8"/>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1991,79 +1977,87 @@
         <v>68</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="D23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
       <c r="H23" s="8"/>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
       <c r="H24" s="8"/>
-      <c r="I24">
-        <f>LEN(F9)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
       <c r="H25" s="8"/>
-      <c r="I25">
-        <f>LEN(F10)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
       <c r="H26" s="8"/>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2071,33 +2065,35 @@
         <v>68</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
       <c r="H27" s="8"/>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="D28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
       <c r="H28" s="8"/>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2105,19 +2101,17 @@
         <v>68</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
       <c r="H29" s="8"/>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2125,19 +2119,15 @@
         <v>68</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
       <c r="H30" s="8"/>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2145,29 +2135,35 @@
         <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
       <c r="H31" s="8"/>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2175,15 +2171,17 @@
         <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2191,15 +2189,17 @@
         <v>68</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2207,41 +2207,53 @@
         <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>135</v>
+      <c r="E37" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2249,15 +2261,17 @@
         <v>68</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2265,538 +2279,508 @@
         <v>68</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>109</v>
+      <c r="E40" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="D41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="9">
+        <v>8</v>
+      </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="D42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="9">
+        <v>6</v>
+      </c>
       <c r="H42" s="8"/>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G43" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H43" s="8"/>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F44" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G44" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H44" s="8"/>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G45" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G46" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G47" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G48" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G49" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G50" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F51" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G51" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G52" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G53" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G54" s="9">
         <v>2</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="9">
-        <v>4</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1</v>
-      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="8"/>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
       <c r="H58" s="8"/>
-      <c r="I58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="9"/>
+      <c r="D61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="8"/>
       <c r="D63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E65" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="17" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
-      <c r="B67" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -2806,11 +2790,13 @@
       <c r="D69" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>73</v>
+      <c r="E69" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -2821,54 +2807,62 @@
         <v>68</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
-      <c r="B72" s="11" t="s">
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
+      <c r="D71" s="19"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -2878,11 +2872,13 @@
       <c r="D74" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>73</v>
+      <c r="E74" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2892,11 +2888,13 @@
       <c r="D75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>74</v>
+      <c r="E75" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -2907,12 +2905,12 @@
         <v>68</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -2922,11 +2920,13 @@
       <c r="D77" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>80</v>
+      <c r="E77" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="8">
+        <v>1</v>
+      </c>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2940,7 +2940,9 @@
       <c r="D78" s="19"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7">
+        <v>1</v>
+      </c>
       <c r="H78" s="7" t="s">
         <v>13</v>
       </c>
@@ -2953,10 +2955,12 @@
         <v>67</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -2966,11 +2970,13 @@
       <c r="D80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F80" s="9"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -2984,7 +2990,9 @@
         <v>74</v>
       </c>
       <c r="F81" s="9"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -2994,43 +3002,51 @@
       <c r="D82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>75</v>
+      <c r="E82" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="F82" s="9"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
-      <c r="B83" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="9"/>
+      <c r="D84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="F84" s="9"/>
-      <c r="G84" s="10"/>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
-      <c r="B85" s="12" t="s">
-        <v>35</v>
+      <c r="B85" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>16</v>
@@ -3038,9 +3054,11 @@
       <c r="D85" s="19"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7">
+        <v>1</v>
+      </c>
       <c r="H85" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -3055,8 +3073,8 @@
     </row>
     <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
-      <c r="B87" s="11" t="s">
-        <v>18</v>
+      <c r="B87" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>16</v>
@@ -3064,9 +3082,11 @@
       <c r="D87" s="19"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7">
+        <v>1</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3082,7 +3102,7 @@
     <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
       <c r="B89" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>16</v>
@@ -3090,9 +3110,11 @@
       <c r="D89" s="19"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="7">
+        <v>1</v>
+      </c>
       <c r="H89" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -3108,7 +3130,7 @@
     <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>16</v>
@@ -3116,9 +3138,11 @@
       <c r="D91" s="19"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7">
+        <v>1</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3134,7 +3158,7 @@
     <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>16</v>
@@ -3142,9 +3166,11 @@
       <c r="D93" s="19"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7">
+        <v>1</v>
+      </c>
       <c r="H93" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -3160,61 +3186,65 @@
     <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
       <c r="B95" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="7"/>
+      <c r="G95" s="7">
+        <v>1</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="7">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E98" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3225,42 +3255,44 @@
         <v>68</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="8">
+        <v>1</v>
+      </c>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7"/>
-      <c r="B100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
-        <v>50</v>
-      </c>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="8">
+        <v>1</v>
+      </c>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="8">
+        <v>1</v>
+      </c>
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3270,13 +3302,13 @@
       <c r="D102" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G102" s="10"/>
+      <c r="E102" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="8">
+        <v>1</v>
+      </c>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3287,12 +3319,12 @@
         <v>68</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="8">
+        <v>1</v>
+      </c>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3303,107 +3335,116 @@
         <v>68</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F104" s="9"/>
-      <c r="G104" s="10"/>
+      <c r="G104" s="8">
+        <v>1</v>
+      </c>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:9" s="24" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" s="26" t="s">
-        <v>92</v>
-      </c>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="8">
+        <v>1</v>
+      </c>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G106" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="8">
+        <v>1</v>
+      </c>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="7"/>
+      <c r="B107" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="7">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="G108" s="8">
+        <v>1</v>
+      </c>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:9" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="21"/>
-      <c r="B109" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21" t="s">
-        <v>52</v>
-      </c>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G109" s="8">
+        <v>1</v>
+      </c>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>95</v>
+        <v>68</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G110" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="G110" s="8">
+        <v>1</v>
+      </c>
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3414,157 +3455,172 @@
         <v>68</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="10"/>
+      <c r="G111" s="8">
+        <v>1</v>
+      </c>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="7"/>
-      <c r="B113" s="11" t="s">
+    <row r="112" spans="1:9" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="22">
+        <v>1</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" s="25"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="22"/>
+      <c r="B114" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="22">
+        <v>1</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="7"/>
+      <c r="B116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
+      <c r="D116" s="19"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="7">
+        <v>4</v>
+      </c>
+      <c r="H116" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="7"/>
-      <c r="B115" s="11" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="7"/>
+      <c r="B118" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7" t="s">
+      <c r="D118" s="19"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="7">
+        <v>2</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="7"/>
-      <c r="B117" s="11" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="7"/>
+      <c r="B120" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
+      <c r="D120" s="19"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="7">
+        <v>2</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="7"/>
-      <c r="B119" s="11" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7" t="s">
+      <c r="D122" s="19"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="7">
+        <v>2</v>
+      </c>
+      <c r="H122" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
@@ -3576,15 +3632,23 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="7">
+        <v>4</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
@@ -3646,6 +3710,36 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E25DE0-A028-46A6-8E64-862E92BE5D36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0700" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="143">
   <si>
     <t>System</t>
   </si>
@@ -327,9 +326,6 @@
   </si>
   <si>
     <t>Fluid, limited slip differential oil 75W140</t>
-  </si>
-  <si>
-    <t>Fluid, tripod grease</t>
   </si>
   <si>
     <t>Fluid, chain oil</t>
@@ -558,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -780,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -817,7 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,27 +1138,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="41.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1220,7 +1215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1239,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1258,7 +1253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1277,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1296,7 +1291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1313,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1330,7 +1325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1349,7 +1344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1366,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1385,7 +1380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1404,7 +1399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1423,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1442,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1459,7 +1454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1476,7 +1471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1495,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1514,7 +1509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1533,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1552,7 +1547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1578,26 +1573,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C113" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="20" customWidth="1"/>
-    <col min="5" max="6" width="41.08984375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="41.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1623,21 +1618,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>66</v>
@@ -1645,22 +1640,22 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="9"/>
@@ -1669,15 +1664,15 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>90</v>
+      <c r="E5" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
@@ -1685,15 +1680,15 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>91</v>
+      <c r="E6" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
@@ -1701,15 +1696,15 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>136</v>
+      <c r="E7" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9">
@@ -1717,7 +1712,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1725,17 +1720,17 @@
         <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1743,17 +1738,17 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1761,17 +1756,17 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1779,17 +1774,17 @@
         <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1797,17 +1792,17 @@
         <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1815,17 +1810,17 @@
         <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1833,35 +1828,35 @@
         <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1869,17 +1864,17 @@
         <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1887,17 +1882,17 @@
         <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1905,35 +1900,35 @@
         <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="G18" s="9">
         <v>1</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>99</v>
+      <c r="E19" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1941,17 +1936,17 @@
         <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1959,17 +1954,17 @@
         <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="G21" s="9">
         <v>1</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1977,17 +1972,17 @@
         <v>68</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1995,17 +1990,17 @@
         <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2016,14 +2011,14 @@
         <v>73</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2034,14 +2029,14 @@
         <v>79</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2049,7 +2044,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
@@ -2057,7 +2052,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2065,17 +2060,17 @@
         <v>68</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2086,14 +2081,14 @@
         <v>73</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2104,14 +2099,14 @@
         <v>79</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2119,7 +2114,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
@@ -2127,7 +2122,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2135,17 +2130,17 @@
         <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2153,17 +2148,17 @@
         <v>68</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2171,17 +2166,17 @@
         <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2189,17 +2184,17 @@
         <v>68</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2207,17 +2202,17 @@
         <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2225,17 +2220,17 @@
         <v>68</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2243,17 +2238,17 @@
         <v>68</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2261,17 +2256,17 @@
         <v>68</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2279,35 +2274,35 @@
         <v>68</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>128</v>
+      <c r="E40" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2318,14 +2313,14 @@
         <v>76</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="9">
         <v>8</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2336,32 +2331,32 @@
         <v>77</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" s="9">
         <v>6</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>92</v>
+      <c r="E43" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="9">
         <v>14</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2372,14 +2367,14 @@
         <v>76</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="9">
         <v>7</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2390,32 +2385,32 @@
         <v>77</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="9">
         <v>6</v>
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>92</v>
+      <c r="E46" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="9">
         <v>13</v>
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2423,17 +2418,17 @@
         <v>75</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2441,53 +2436,53 @@
         <v>75</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="G48" s="9">
         <v>2</v>
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>96</v>
+      <c r="E49" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G49" s="9">
         <v>8</v>
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="28" t="s">
-        <v>126</v>
+      <c r="E50" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="9">
         <v>8</v>
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2498,14 +2493,14 @@
         <v>76</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="9">
         <v>2</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2516,14 +2511,14 @@
         <v>77</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="9">
         <v>2</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2531,35 +2526,35 @@
         <v>75</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G53" s="9">
         <v>4</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="G54" s="9">
         <v>2</v>
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="11" t="s">
         <v>15</v>
@@ -2567,9 +2562,9 @@
       <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="7">
         <v>1</v>
       </c>
@@ -2577,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2587,7 +2582,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="11" t="s">
         <v>33</v>
@@ -2595,9 +2590,9 @@
       <c r="C57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="7">
         <v>1</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2621,7 +2616,7 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2637,7 +2632,7 @@
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2653,15 +2648,15 @@
       </c>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>140</v>
+      <c r="E61" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
@@ -2669,7 +2664,7 @@
       </c>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2685,15 +2680,15 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="8"/>
       <c r="D63" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
@@ -2701,7 +2696,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="12" t="s">
         <v>34</v>
@@ -2709,9 +2704,9 @@
       <c r="C64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="7">
         <v>1</v>
       </c>
@@ -2719,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2735,7 +2730,7 @@
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2751,7 +2746,7 @@
       </c>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2767,15 +2762,15 @@
       </c>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>140</v>
+      <c r="E68" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9">
@@ -2783,7 +2778,7 @@
       </c>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2799,7 +2794,7 @@
       </c>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2807,7 +2802,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9">
@@ -2815,7 +2810,7 @@
       </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="11" t="s">
         <v>37</v>
@@ -2823,9 +2818,9 @@
       <c r="C71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="7">
         <v>1</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2849,7 +2844,7 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2865,7 +2860,7 @@
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2881,15 +2876,15 @@
       </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>140</v>
+      <c r="E75" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="8">
@@ -2897,7 +2892,7 @@
       </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2921,7 +2916,7 @@
         <v>68</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="8">
@@ -2929,7 +2924,7 @@
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="11" t="s">
         <v>36</v>
@@ -2937,9 +2932,9 @@
       <c r="C78" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="7">
         <v>1</v>
       </c>
@@ -2947,7 +2942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2963,7 +2958,7 @@
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2979,7 +2974,7 @@
       </c>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2995,15 +2990,15 @@
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>140</v>
+      <c r="E82" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="8">
@@ -3011,7 +3006,7 @@
       </c>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3027,7 +3022,7 @@
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3035,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="8">
@@ -3043,7 +3038,7 @@
       </c>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="11" t="s">
         <v>38</v>
@@ -3051,9 +3046,9 @@
       <c r="C85" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="7">
         <v>1</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3071,7 +3066,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="12" t="s">
         <v>35</v>
@@ -3079,9 +3074,9 @@
       <c r="C87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="7">
         <v>1</v>
       </c>
@@ -3089,7 +3084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3099,7 +3094,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="11" t="s">
         <v>18</v>
@@ -3107,9 +3102,9 @@
       <c r="C89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="7">
         <v>1</v>
       </c>
@@ -3117,7 +3112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3127,7 +3122,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="11" t="s">
         <v>25</v>
@@ -3135,9 +3130,9 @@
       <c r="C91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="7">
         <v>1</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3155,7 +3150,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="11" t="s">
         <v>29</v>
@@ -3163,9 +3158,9 @@
       <c r="C93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="7">
         <v>1</v>
       </c>
@@ -3173,7 +3168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3183,7 +3178,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="11" t="s">
         <v>30</v>
@@ -3191,9 +3186,9 @@
       <c r="C95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="7">
         <v>1</v>
       </c>
@@ -3201,7 +3196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3211,7 +3206,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="11" t="s">
         <v>23</v>
@@ -3219,9 +3214,9 @@
       <c r="C97" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="7">
         <v>1</v>
       </c>
@@ -3229,7 +3224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3247,7 +3242,7 @@
       </c>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3255,7 +3250,7 @@
         <v>68</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="8">
@@ -3263,7 +3258,7 @@
       </c>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3279,7 +3274,7 @@
       </c>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3295,15 +3290,15 @@
       </c>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E102" s="17" t="s">
-        <v>140</v>
+      <c r="E102" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="8">
@@ -3311,7 +3306,7 @@
       </c>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3327,7 +3322,7 @@
       </c>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3343,7 +3338,7 @@
       </c>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3359,7 +3354,7 @@
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3367,7 +3362,7 @@
         <v>68</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="8">
@@ -3375,7 +3370,7 @@
       </c>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="11" t="s">
         <v>26</v>
@@ -3383,9 +3378,9 @@
       <c r="C107" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="7">
         <v>1</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3411,7 +3406,7 @@
       </c>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3429,7 +3424,7 @@
       </c>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3447,7 +3442,7 @@
       </c>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3463,64 +3458,64 @@
       </c>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:9" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22" t="s">
+    <row r="112" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="22">
-        <v>1</v>
-      </c>
-      <c r="H112" s="22" t="s">
+      <c r="D112" s="22"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="21">
+        <v>1</v>
+      </c>
+      <c r="H112" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I112" s="25"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I112" s="24"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="21"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" s="26" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="22"/>
-      <c r="B114" s="27" t="s">
+    <row r="114" spans="1:8" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="21"/>
+      <c r="B114" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="22">
-        <v>1</v>
-      </c>
-      <c r="H114" s="22" t="s">
+      <c r="D114" s="22"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="21">
+        <v>1</v>
+      </c>
+      <c r="H114" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="21"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="11" t="s">
         <v>32</v>
@@ -3528,9 +3523,9 @@
       <c r="C116" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="7">
         <v>4</v>
       </c>
@@ -3538,7 +3533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3548,7 +3543,7 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="11" t="s">
         <v>40</v>
@@ -3556,9 +3551,9 @@
       <c r="C118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="7">
         <v>2</v>
       </c>
@@ -3566,7 +3561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3576,7 +3571,7 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="11" t="s">
         <v>41</v>
@@ -3584,9 +3579,9 @@
       <c r="C120" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="7">
         <v>2</v>
       </c>
@@ -3594,7 +3589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -3604,7 +3599,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="11" t="s">
         <v>57</v>
@@ -3612,9 +3607,9 @@
       <c r="C122" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="7">
         <v>2</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3632,7 +3627,7 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7" t="s">
         <v>61</v>
@@ -3640,9 +3635,9 @@
       <c r="C124" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="7">
         <v>4</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3660,7 +3655,7 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3670,7 +3665,7 @@
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3680,7 +3675,7 @@
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -3690,7 +3685,7 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -3700,7 +3695,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -3710,7 +3705,7 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -3720,7 +3715,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -3730,7 +3725,7 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="147">
   <si>
     <t>System</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>Retaining ring, external</t>
-  </si>
-  <si>
-    <t>Assembly of axle boots</t>
   </si>
   <si>
     <t>M6, assembly of chainshield</t>
@@ -503,9 +500,6 @@
     <t>Boot clamps to lock axle boots</t>
   </si>
   <si>
-    <t>Painting, aerosol apply</t>
-  </si>
-  <si>
     <t>M10, assembly of sprockets</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t>On screews used for inner tripod housing</t>
   </si>
   <si>
-    <t>Thread locking</t>
-  </si>
-  <si>
     <t>Adjustment of driveshaft left</t>
   </si>
   <si>
@@ -549,6 +540,27 @@
   </si>
   <si>
     <t>Metrology</t>
+  </si>
+  <si>
+    <t>Threadlock</t>
+  </si>
+  <si>
+    <t>Laser cut setup, install and remove</t>
+  </si>
+  <si>
+    <t>Setup for lathe machining</t>
+  </si>
+  <si>
+    <t>Setup for milling machining</t>
+  </si>
+  <si>
+    <t>Assembly of axle boot, medium (33 cm)</t>
+  </si>
+  <si>
+    <t>Assembly of axle boot, large (72 cm)</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1684,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
@@ -1687,7 +1699,7 @@
       <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="9"/>
@@ -1703,8 +1715,8 @@
       <c r="D7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>135</v>
+      <c r="E7" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9">
@@ -1720,10 +1732,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1738,10 +1750,10 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1756,10 +1768,10 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1774,10 +1786,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1792,10 +1804,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1810,10 +1822,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -1828,10 +1840,10 @@
         <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -1846,10 +1858,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -1864,10 +1876,10 @@
         <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -1882,10 +1894,10 @@
         <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -1900,10 +1912,10 @@
         <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -1918,10 +1930,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -1936,10 +1948,10 @@
         <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -1954,10 +1966,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -1972,10 +1984,10 @@
         <v>68</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -1990,10 +2002,10 @@
         <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -2011,7 +2023,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -2029,7 +2041,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -2044,7 +2056,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
@@ -2060,10 +2072,10 @@
         <v>68</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -2081,7 +2093,7 @@
         <v>73</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -2099,7 +2111,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2114,7 +2126,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
@@ -2130,10 +2142,10 @@
         <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2148,10 +2160,10 @@
         <v>68</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2166,10 +2178,10 @@
         <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2184,10 +2196,10 @@
         <v>68</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -2202,10 +2214,10 @@
         <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
@@ -2220,10 +2232,10 @@
         <v>68</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2238,10 +2250,10 @@
         <v>68</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2256,10 +2268,10 @@
         <v>68</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -2274,10 +2286,10 @@
         <v>68</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2292,10 +2304,10 @@
         <v>68</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2367,7 +2379,7 @@
         <v>76</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>7</v>
@@ -2385,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>6</v>
@@ -2403,7 +2415,7 @@
         <v>91</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>13</v>
@@ -2421,7 +2433,7 @@
         <v>95</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -2457,7 +2469,7 @@
         <v>95</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G49" s="9">
         <v>8</v>
@@ -2472,13 +2484,13 @@
         <v>75</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="G50" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2489,14 +2501,14 @@
       <c r="D51" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>76</v>
+      <c r="E51" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="G51" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2508,10 +2520,10 @@
         <v>75</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="9">
         <v>2</v>
@@ -2526,13 +2538,13 @@
         <v>75</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -2543,88 +2555,90 @@
       <c r="D54" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>129</v>
+      <c r="E54" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G54" s="9">
+        <v>4</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="9">
         <v>2</v>
       </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="11" t="s">
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="7">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9">
-        <v>1</v>
-      </c>
-      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
@@ -2640,7 +2654,7 @@
         <v>68</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9">
@@ -2655,8 +2669,8 @@
       <c r="D61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>139</v>
+      <c r="E61" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
@@ -2671,8 +2685,8 @@
       <c r="D62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>74</v>
+      <c r="E62" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9">
@@ -2682,13 +2696,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
@@ -2696,49 +2710,49 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="12" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="7">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7" t="s">
+      <c r="D65" s="18"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9">
-        <v>1</v>
-      </c>
-      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9">
@@ -2754,7 +2768,7 @@
         <v>68</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9">
@@ -2769,8 +2783,8 @@
       <c r="D68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>139</v>
+      <c r="E68" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9">
@@ -2785,8 +2799,8 @@
       <c r="D69" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>74</v>
+      <c r="E69" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9">
@@ -2802,7 +2816,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9">
@@ -2810,49 +2824,49 @@
       </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="7">
-        <v>1</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="D72" s="18"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="8">
-        <v>1</v>
-      </c>
-      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="8">
@@ -2868,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="8">
@@ -2883,8 +2897,8 @@
       <c r="D75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>139</v>
+      <c r="E75" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="8">
@@ -2899,8 +2913,8 @@
       <c r="D76" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>74</v>
+      <c r="E76" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="8">
@@ -2916,7 +2930,7 @@
         <v>68</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="8">
@@ -2924,49 +2938,49 @@
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="11" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="7">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="8">
-        <v>1</v>
-      </c>
-      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="8">
@@ -2982,7 +2996,7 @@
         <v>68</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="8">
@@ -2997,8 +3011,8 @@
       <c r="D82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>139</v>
+      <c r="E82" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="8">
@@ -3013,8 +3027,8 @@
       <c r="D83" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>74</v>
+      <c r="E83" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="8">
@@ -3030,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="8">
@@ -3038,227 +3052,227 @@
       </c>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="11" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="7">
-        <v>1</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="D86" s="18"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="7">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="12" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="7">
-        <v>1</v>
-      </c>
-      <c r="H87" s="7" t="s">
+      <c r="D88" s="18"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="7">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="11" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="7">
-        <v>1</v>
-      </c>
-      <c r="H89" s="7" t="s">
+      <c r="D90" s="18"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="7">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="11" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="7">
-        <v>1</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="D92" s="18"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="7">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="7">
-        <v>1</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="D94" s="18"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="7">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="11" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="7">
-        <v>1</v>
-      </c>
-      <c r="H95" s="7" t="s">
+      <c r="D96" s="18"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="7">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="11" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="7">
-        <v>1</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="7">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="8">
-        <v>1</v>
-      </c>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="G99" s="8">
         <v>1</v>
       </c>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3266,7 +3280,7 @@
         <v>68</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="8">
@@ -3274,7 +3288,7 @@
       </c>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3282,23 +3296,25 @@
         <v>68</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G101" s="8">
         <v>1</v>
       </c>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>139</v>
+      <c r="E102" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="8">
@@ -3306,15 +3322,15 @@
       </c>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>79</v>
+      <c r="E103" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="8">
@@ -3322,7 +3338,7 @@
       </c>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3330,7 +3346,7 @@
         <v>68</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="8">
@@ -3338,7 +3354,7 @@
       </c>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3346,15 +3362,17 @@
         <v>68</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="G105" s="8">
         <v>1</v>
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3362,7 +3380,7 @@
         <v>68</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="8">
@@ -3370,292 +3388,298 @@
       </c>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="11" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="8">
+        <v>1</v>
+      </c>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="7">
-        <v>1</v>
-      </c>
-      <c r="H107" s="7" t="s">
+      <c r="D108" s="18"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G108" s="8">
-        <v>1</v>
-      </c>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G109" s="8">
         <v>1</v>
       </c>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G110" s="8">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F111" s="9"/>
+      <c r="D111" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G111" s="8">
         <v>1</v>
       </c>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="21">
-        <v>1</v>
-      </c>
-      <c r="H112" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I112" s="24"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112" s="8">
+        <v>1</v>
+      </c>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="20"/>
+      <c r="D113" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="26" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="8">
+        <v>1</v>
+      </c>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="22"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="21">
+        <v>1</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I115" s="24"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="21"/>
+      <c r="B117" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C117" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="21">
-        <v>1</v>
-      </c>
-      <c r="H114" s="21" t="s">
+      <c r="D117" s="22"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="21">
+        <v>1</v>
+      </c>
+      <c r="H117" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="11" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="7">
+      <c r="D119" s="18"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="7">
         <v>4</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="11" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="7">
+      <c r="D121" s="18"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="7">
         <v>2</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="11" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="7">
+      <c r="D123" s="18"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="7">
         <v>2</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="11" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="7">
+      <c r="D125" s="18"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="7">
         <v>2</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H125" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="7">
-        <v>4</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3665,17 +3689,25 @@
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="7">
+        <v>4</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -3685,56 +3717,6 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0700.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0700.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="146">
   <si>
     <t>System</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>Machining setup, install and remove</t>
-  </si>
-  <si>
-    <t>Machining (conventionnal)</t>
   </si>
   <si>
     <t>Fasterners</t>
@@ -1470,7 +1467,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -1588,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,7 +1665,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9">
@@ -1684,7 +1681,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
@@ -1700,7 +1697,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
@@ -1716,7 +1713,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9">
@@ -1732,10 +1729,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1750,10 +1747,10 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1768,10 +1765,10 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1786,10 +1783,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1804,10 +1801,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1822,10 +1819,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -1840,10 +1837,10 @@
         <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -1858,10 +1855,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -1876,10 +1873,10 @@
         <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -1894,10 +1891,10 @@
         <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -1912,10 +1909,10 @@
         <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -1930,10 +1927,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -1948,10 +1945,10 @@
         <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -1966,10 +1963,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -1984,10 +1981,10 @@
         <v>68</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -2002,10 +1999,10 @@
         <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -2023,7 +2020,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -2038,10 +2035,10 @@
         <v>68</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -2056,7 +2053,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
@@ -2072,10 +2069,10 @@
         <v>68</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -2093,7 +2090,7 @@
         <v>73</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -2108,10 +2105,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2126,7 +2123,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
@@ -2142,10 +2139,10 @@
         <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2160,10 +2157,10 @@
         <v>68</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2178,10 +2175,10 @@
         <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2196,10 +2193,10 @@
         <v>68</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -2214,10 +2211,10 @@
         <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
@@ -2232,10 +2229,10 @@
         <v>68</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2250,10 +2247,10 @@
         <v>68</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2268,10 +2265,10 @@
         <v>68</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -2286,10 +2283,10 @@
         <v>68</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2304,10 +2301,10 @@
         <v>68</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2319,13 +2316,13 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41" s="9">
         <v>8</v>
@@ -2337,13 +2334,13 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G42" s="9">
         <v>6</v>
@@ -2355,13 +2352,13 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="9">
         <v>14</v>
@@ -2373,13 +2370,13 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="F44" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="9">
         <v>7</v>
@@ -2391,13 +2388,13 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G45" s="9">
         <v>6</v>
@@ -2409,13 +2406,13 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" s="9">
         <v>13</v>
@@ -2427,13 +2424,13 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -2445,13 +2442,13 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="G48" s="9">
         <v>2</v>
@@ -2463,13 +2460,13 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G49" s="9">
         <v>8</v>
@@ -2481,13 +2478,13 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" s="9">
         <v>4</v>
@@ -2499,13 +2496,13 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G51" s="9">
         <v>4</v>
@@ -2517,13 +2514,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G52" s="9">
         <v>2</v>
@@ -2535,13 +2532,13 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="9">
         <v>2</v>
@@ -2553,13 +2550,13 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" s="9">
         <v>4</v>
@@ -2571,13 +2568,13 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G55" s="9">
         <v>2</v>
@@ -2670,7 +2667,7 @@
         <v>68</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
@@ -2686,7 +2683,7 @@
         <v>68</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9">
@@ -2702,7 +2699,7 @@
         <v>68</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
@@ -2718,7 +2715,7 @@
         <v>68</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9">
@@ -2784,7 +2781,7 @@
         <v>68</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9">
@@ -2800,7 +2797,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9">
@@ -2816,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9">
@@ -2832,7 +2829,7 @@
         <v>68</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9">
@@ -2866,7 +2863,7 @@
         <v>67</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="8">
@@ -2898,7 +2895,7 @@
         <v>68</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="8">
@@ -2914,7 +2911,7 @@
         <v>68</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="8">
@@ -2930,7 +2927,7 @@
         <v>68</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="8">
@@ -2946,7 +2943,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="8">
@@ -2980,7 +2977,7 @@
         <v>67</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="8">
@@ -3012,7 +3009,7 @@
         <v>68</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="8">
@@ -3028,7 +3025,7 @@
         <v>68</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="8">
@@ -3044,7 +3041,7 @@
         <v>68</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="8">
@@ -3060,7 +3057,7 @@
         <v>68</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="8">
@@ -3262,10 +3259,10 @@
         <v>67</v>
       </c>
       <c r="E99" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="G99" s="8">
         <v>1</v>
@@ -3280,7 +3277,7 @@
         <v>68</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="8">
@@ -3299,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G101" s="8">
         <v>1</v>
@@ -3314,7 +3311,7 @@
         <v>68</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="8">
@@ -3330,7 +3327,7 @@
         <v>68</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="8">
@@ -3346,7 +3343,7 @@
         <v>68</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="8">
@@ -3365,7 +3362,7 @@
         <v>73</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G105" s="8">
         <v>1</v>
@@ -3380,7 +3377,7 @@
         <v>68</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="8">
@@ -3396,7 +3393,7 @@
         <v>68</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="8">
@@ -3430,10 +3427,10 @@
         <v>67</v>
       </c>
       <c r="E109" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G109" s="8">
         <v>1</v>
@@ -3448,7 +3445,7 @@
         <v>68</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="8"/>
@@ -3462,10 +3459,10 @@
         <v>68</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G111" s="8">
         <v>1</v>
@@ -3480,10 +3477,10 @@
         <v>68</v>
       </c>
       <c r="E112" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="G112" s="8">
         <v>1</v>
@@ -3498,7 +3495,7 @@
         <v>68</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="8"/>
@@ -3512,7 +3509,7 @@
         <v>68</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="8">
@@ -3552,7 +3549,7 @@
     <row r="117" spans="1:9" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>16</v>
